--- a/项目相关/装备处项目/项目文档/外包合同相关/综合业务平台外包前端开发工作量预估.xlsx
+++ b/项目相关/装备处项目/项目文档/外包合同相关/综合业务平台外包前端开发工作量预估.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
-  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="100" windowWidth="23200" windowHeight="13240"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="23205" windowHeight="13245" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="修订历史" sheetId="3" r:id="rId1"/>
     <sheet name="汇总" sheetId="1" r:id="rId2"/>
     <sheet name="明细" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="171">
   <si>
     <t>成都力拓云科技有限公司</t>
   </si>
@@ -251,24 +251,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>？？仅仅是选择结帐月份，然后系统后台自动处理？ 
-改为竖向表格12月统计操作。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>改为用友方式</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>调整</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>重复</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -672,17 +655,21 @@
   </si>
   <si>
     <t>2017年10月18号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>改为竖向表格12月统计操作。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00;&quot;¥&quot;\-#,##0.00"/>
+    <numFmt numFmtId="7" formatCode="&quot;¥&quot;#,##0.00;&quot;¥&quot;\-#,##0.00"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -816,14 +803,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -869,7 +848,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -914,36 +893,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1036,19 +985,19 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1058,8 +1007,8 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="176" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="7" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="7" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1070,26 +1019,11 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="8" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1098,24 +1032,23 @@
     <xf numFmtId="0" fontId="14" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1137,31 +1070,34 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
-    <cellStyle name="访问过的超链接" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="输出" xfId="1" builtinId="21"/>
+    <cellStyle name="已访问的超链接" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="13" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1460,95 +1396,95 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C7:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.1640625" customWidth="1"/>
-    <col min="5" max="5" width="22.83203125" customWidth="1"/>
+    <col min="3" max="3" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.125" customWidth="1"/>
+    <col min="5" max="5" width="22.875" customWidth="1"/>
     <col min="6" max="6" width="22.5" customWidth="1"/>
-    <col min="7" max="7" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="3:7" ht="55">
-      <c r="C7" s="42" t="s">
+    <row r="7" spans="3:7" ht="61.5">
+      <c r="C7" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+    </row>
+    <row r="8" spans="3:7" ht="25.5">
+      <c r="C8" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="G8" s="24" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" spans="3:7" ht="22.5">
+      <c r="C9" s="25" t="s">
         <v>156</v>
       </c>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-    </row>
-    <row r="8" spans="3:7" ht="23">
-      <c r="C8" s="43" t="s">
+      <c r="D9" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="E9" s="25" t="s">
         <v>157</v>
       </c>
-      <c r="D8" s="43" t="s">
-        <v>170</v>
-      </c>
-      <c r="E8" s="43" t="s">
+      <c r="F9" s="25"/>
+      <c r="G9" s="25" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" spans="3:7" ht="45">
+      <c r="C10" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="F8" s="43" t="s">
-        <v>165</v>
-      </c>
-      <c r="G8" s="43" t="s">
+      <c r="D10" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="E10" s="25" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="9" spans="3:7" ht="21">
-      <c r="C9" s="44" t="s">
+      <c r="F10" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="G10" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="D9" s="44" t="s">
+    </row>
+    <row r="11" spans="3:7" ht="22.5">
+      <c r="C11" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="G11" s="25" t="s">
         <v>169</v>
-      </c>
-      <c r="E9" s="44" t="s">
-        <v>161</v>
-      </c>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="10" spans="3:7" ht="42">
-      <c r="C10" s="44" t="s">
-        <v>162</v>
-      </c>
-      <c r="D10" s="44" t="s">
-        <v>171</v>
-      </c>
-      <c r="E10" s="44" t="s">
-        <v>163</v>
-      </c>
-      <c r="F10" s="44" t="s">
-        <v>163</v>
-      </c>
-      <c r="G10" s="44" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="11" spans="3:7" ht="21">
-      <c r="C11" s="44" t="s">
-        <v>166</v>
-      </c>
-      <c r="D11" s="44" t="s">
-        <v>172</v>
-      </c>
-      <c r="E11" s="44" t="s">
-        <v>167</v>
-      </c>
-      <c r="F11" s="44" t="s">
-        <v>168</v>
-      </c>
-      <c r="G11" s="44" t="s">
-        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -1567,36 +1503,36 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:E21"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="30.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="21.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
     </row>
     <row r="2" spans="1:3" ht="35.25" customHeight="1">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-    </row>
-    <row r="3" spans="1:3" ht="15">
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+    </row>
+    <row r="3" spans="1:3" ht="14.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1615,7 +1551,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B5" s="1">
         <v>4</v>
@@ -1643,7 +1579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15">
+    <row r="8" spans="1:3" ht="14.25">
       <c r="A8" s="1" t="s">
         <v>50</v>
       </c>
@@ -1651,15 +1587,15 @@
         <f>明细!D93</f>
         <v>63.5</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="23" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B9" s="33">
+        <v>61</v>
+      </c>
+      <c r="B9" s="22">
         <v>10</v>
       </c>
     </row>
@@ -1679,7 +1615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15">
+    <row r="12" spans="1:3" ht="14.25">
       <c r="A12" s="5" t="s">
         <v>3</v>
       </c>
@@ -1705,7 +1641,7 @@
     <row r="15" spans="1:3">
       <c r="B15" s="8"/>
     </row>
-    <row r="16" spans="1:3" ht="15">
+    <row r="16" spans="1:3" ht="14.25">
       <c r="A16" s="9" t="s">
         <v>5</v>
       </c>
@@ -1731,23 +1667,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D98"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="14.83203125" style="14" customWidth="1"/>
-    <col min="2" max="2" width="36.6640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.1640625" style="14" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" style="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.83203125" style="14"/>
+    <col min="1" max="1" width="14.875" style="14" customWidth="1"/>
+    <col min="2" max="2" width="36.625" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.125" style="14" customWidth="1"/>
+    <col min="4" max="4" width="17.375" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.875" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15">
+    <row r="1" spans="1:4" ht="14.25">
       <c r="A1" s="12" t="s">
         <v>8</v>
       </c>
@@ -1761,1043 +1697,1040 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15">
-      <c r="A2" s="39" t="s">
+    <row r="2" spans="1:4" ht="14.25">
+      <c r="A2" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="15"/>
+      <c r="D2" s="16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="14.25">
+      <c r="A3" s="32"/>
+      <c r="B3" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="16">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="14.25">
+      <c r="A4" s="32"/>
+      <c r="B4" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="15"/>
+      <c r="D4" s="16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="14.25">
+      <c r="A5" s="32"/>
+      <c r="B5" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="14.25">
+      <c r="A6" s="32"/>
+      <c r="B6" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="17">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15">
-      <c r="A3" s="40"/>
-      <c r="B3" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="16" t="s">
+      <c r="C6" s="15"/>
+      <c r="D6" s="16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="27">
+      <c r="A7" s="32"/>
+      <c r="B7" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="27">
+      <c r="A8" s="32"/>
+      <c r="B8" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="14.25">
+      <c r="A9" s="32"/>
+      <c r="B9" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="D9" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="14.25">
+      <c r="A10" s="32"/>
+      <c r="B10" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="15"/>
+      <c r="D10" s="16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="27">
+      <c r="A11" s="32"/>
+      <c r="B11" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="16">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="14.25">
+      <c r="A12" s="32"/>
+      <c r="B12" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="15"/>
+      <c r="D12" s="16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="14.25">
+      <c r="A13" s="32"/>
+      <c r="B13" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="14.25">
+      <c r="A14" s="32"/>
+      <c r="B14" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="15"/>
+      <c r="D14" s="16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="14.25">
+      <c r="A15" s="32"/>
+      <c r="B15" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="14.25">
+      <c r="A16" s="32"/>
+      <c r="B16" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="15"/>
+      <c r="D16" s="16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="14.25">
+      <c r="A17" s="32"/>
+      <c r="B17" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="15"/>
+      <c r="D17" s="16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="14.25">
+      <c r="A18" s="32"/>
+      <c r="B18" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="15"/>
+      <c r="D18" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="14.25">
+      <c r="A19" s="32"/>
+      <c r="B19" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D19" s="16">
         <v>1.5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15">
-      <c r="A4" s="40"/>
-      <c r="B4" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="17">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15">
-      <c r="A5" s="40"/>
-      <c r="B5" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="17">
+    <row r="20" spans="1:4" ht="14.25">
+      <c r="A20" s="32"/>
+      <c r="B20" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="15"/>
+      <c r="D20" s="16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="14.25">
+      <c r="A21" s="32"/>
+      <c r="B21" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="15"/>
+      <c r="D21" s="16">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15">
-      <c r="A6" s="40"/>
-      <c r="B6" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="17">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="28">
-      <c r="A7" s="40"/>
-      <c r="B7" s="15" t="s">
+    <row r="22" spans="1:4" ht="14.25">
+      <c r="A22" s="32"/>
+      <c r="B22" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="14.25">
+      <c r="A23" s="32"/>
+      <c r="B23" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="15"/>
+      <c r="D23" s="16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="14.25">
+      <c r="A24" s="32"/>
+      <c r="B24" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="15"/>
+      <c r="D24" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="27">
+      <c r="A25" s="32"/>
+      <c r="B25" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="17">
+      <c r="D25" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="14.25">
+      <c r="A26" s="32"/>
+      <c r="B26" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" s="16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="14.25">
+      <c r="A27" s="32"/>
+      <c r="B27" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="14.25">
+      <c r="A28" s="32"/>
+      <c r="B28" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28" s="15"/>
+      <c r="D28" s="16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="14.25">
+      <c r="A29" s="32"/>
+      <c r="B29" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" s="15"/>
+      <c r="D29" s="16">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="14.25">
+      <c r="A30" s="32"/>
+      <c r="B30" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" s="15"/>
+      <c r="D30" s="16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="14.25">
+      <c r="A31" s="32"/>
+      <c r="B31" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" s="15"/>
+      <c r="D31" s="16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="14.25">
+      <c r="A32" s="32"/>
+      <c r="B32" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" s="15"/>
+      <c r="D32" s="16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="14.25">
+      <c r="A33" s="32"/>
+      <c r="B33" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33" s="15"/>
+      <c r="D33" s="16">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="28">
-      <c r="A8" s="40"/>
-      <c r="B8" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="D8" s="31">
+    <row r="34" spans="1:4" ht="14.25">
+      <c r="A34" s="32"/>
+      <c r="B34" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="C34" s="15"/>
+      <c r="D34" s="16">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="14.25">
+      <c r="A35" s="32"/>
+      <c r="B35" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" s="15"/>
+      <c r="D35" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="14.25">
+      <c r="A36" s="32"/>
+      <c r="B36" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="C36" s="15"/>
+      <c r="D36" s="16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="14.25">
+      <c r="A37" s="32"/>
+      <c r="B37" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37" s="15"/>
+      <c r="D37" s="16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="14.25">
+      <c r="A38" s="32"/>
+      <c r="B38" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="C38" s="15"/>
+      <c r="D38" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="40.5">
+      <c r="A39" s="32"/>
+      <c r="B39" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C39" s="15"/>
+      <c r="D39" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="14.25">
+      <c r="A40" s="32"/>
+      <c r="B40" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D40" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="14.25">
+      <c r="A41" s="32"/>
+      <c r="B41" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="C41" s="15"/>
+      <c r="D41" s="16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="14.25">
+      <c r="A42" s="33"/>
+      <c r="B42" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="C42" s="15"/>
+      <c r="D42" s="16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="14.25">
+      <c r="A43" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B43" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D43" s="16">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="14.25">
+      <c r="A44" s="32"/>
+      <c r="B44" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="D44" s="16">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="14.25">
+      <c r="A45" s="32"/>
+      <c r="B45" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="C45" s="35"/>
+      <c r="D45" s="16">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15">
-      <c r="A9" s="40"/>
-      <c r="B9" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="16" t="s">
+    <row r="46" spans="1:4" ht="14.25">
+      <c r="A46" s="32"/>
+      <c r="B46" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="C46" s="36"/>
+      <c r="D46" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="14.25">
+      <c r="A47" s="32"/>
+      <c r="B47" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="C47" s="15"/>
+      <c r="D47" s="16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="14.25">
+      <c r="A48" s="32"/>
+      <c r="B48" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="C48" s="15"/>
+      <c r="D48" s="16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="14.25">
+      <c r="A49" s="32"/>
+      <c r="B49" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="C49" s="15"/>
+      <c r="D49" s="16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="14.25">
+      <c r="A50" s="32"/>
+      <c r="B50" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="C50" s="15"/>
+      <c r="D50" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="14.25">
+      <c r="A51" s="32"/>
+      <c r="B51" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="C51" s="15"/>
+      <c r="D51" s="16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="14.25">
+      <c r="A52" s="32"/>
+      <c r="B52" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D52" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="14.25">
+      <c r="A53" s="32"/>
+      <c r="B53" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="C53" s="15"/>
+      <c r="D53" s="16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="14.25">
+      <c r="A54" s="32"/>
+      <c r="B54" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="C54" s="15"/>
+      <c r="D54" s="16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="14.25">
+      <c r="A55" s="32"/>
+      <c r="B55" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="C55" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="D55" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="14.25">
+      <c r="A56" s="32"/>
+      <c r="B56" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="C56" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="D56" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="14.25">
+      <c r="A57" s="32"/>
+      <c r="B57" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="C57" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D57" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="14.25">
+      <c r="A58" s="32"/>
+      <c r="B58" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="C58" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D58" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="14.25">
+      <c r="A59" s="32"/>
+      <c r="B59" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="C59" s="15"/>
+      <c r="D59" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="14.25">
+      <c r="A60" s="32"/>
+      <c r="B60" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="C60" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="D60" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="14.25">
+      <c r="A61" s="32"/>
+      <c r="B61" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="C61" s="15"/>
+      <c r="D61" s="16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="14.25">
+      <c r="A62" s="32"/>
+      <c r="B62" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="C62" s="15"/>
+      <c r="D62" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="14.25">
+      <c r="A63" s="32"/>
+      <c r="B63" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="C63" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="D63" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="14.25">
+      <c r="A64" s="32"/>
+      <c r="B64" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="C64" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="D64" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="14.25">
+      <c r="A65" s="32"/>
+      <c r="B65" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="C65" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="D65" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="14.25">
+      <c r="A66" s="32"/>
+      <c r="B66" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="C66" s="15"/>
+      <c r="D66" s="16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="14.25">
+      <c r="A67" s="32"/>
+      <c r="B67" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="C67" s="15"/>
+      <c r="D67" s="16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="14.25">
+      <c r="A68" s="32"/>
+      <c r="B68" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="C68" s="15"/>
+      <c r="D68" s="16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="14.25">
+      <c r="A69" s="32"/>
+      <c r="B69" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="C69" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="D9" s="31">
+      <c r="D69" s="16">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15">
-      <c r="A10" s="40"/>
-      <c r="B10" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="17">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="28">
-      <c r="A11" s="40"/>
-      <c r="B11" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="17">
+    <row r="70" spans="1:4" ht="14.25">
+      <c r="A70" s="32"/>
+      <c r="B70" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="C70" s="15"/>
+      <c r="D70" s="16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="14.25">
+      <c r="A71" s="32"/>
+      <c r="B71" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="C71" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D71" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="14.25">
+      <c r="A72" s="32"/>
+      <c r="B72" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="C72" s="15"/>
+      <c r="D72" s="16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="14.25">
+      <c r="A73" s="32"/>
+      <c r="B73" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="C73" s="15"/>
+      <c r="D73" s="16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="14.25">
+      <c r="A74" s="33"/>
+      <c r="B74" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="C74" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D74" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="14.25">
+      <c r="A75" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B75" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="C75" s="15"/>
+      <c r="D75" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="14.25">
+      <c r="A76" s="32"/>
+      <c r="B76" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="C76" s="15"/>
+      <c r="D76" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="14.25">
+      <c r="A77" s="32"/>
+      <c r="B77" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="C77" s="15"/>
+      <c r="D77" s="16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="27">
+      <c r="A78" s="32"/>
+      <c r="B78" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="C78" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="D78" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="14.25">
+      <c r="A79" s="32"/>
+      <c r="B79" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="C79" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="D79" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="14.25">
+      <c r="A80" s="32"/>
+      <c r="B80" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="C80" s="15"/>
+      <c r="D80" s="16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="27">
+      <c r="A81" s="32"/>
+      <c r="B81" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="C81" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="D81" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="14.25">
+      <c r="A82" s="32"/>
+      <c r="B82" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="C82" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="D82" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="14.25">
+      <c r="A83" s="32"/>
+      <c r="B83" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="C83" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D83" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="14.25">
+      <c r="A84" s="32"/>
+      <c r="B84" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="C84" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="D84" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="14.25">
+      <c r="A85" s="32"/>
+      <c r="B85" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="C85" s="15"/>
+      <c r="D85" s="16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="14.25">
+      <c r="A86" s="32"/>
+      <c r="B86" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="C86" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="D86" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="14.25">
+      <c r="A87" s="32"/>
+      <c r="B87" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="C87" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D87" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="14.25">
+      <c r="A88" s="32"/>
+      <c r="B88" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="C88" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="D88" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="14.25">
+      <c r="A89" s="32"/>
+      <c r="B89" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="C89" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D89" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="14.25">
+      <c r="A90" s="32"/>
+      <c r="B90" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="C90" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D90" s="16">
         <v>1.5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15">
-      <c r="A12" s="40"/>
-      <c r="B12" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="17">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15">
-      <c r="A13" s="40"/>
-      <c r="B13" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="17">
+    <row r="91" spans="1:4" ht="14.25">
+      <c r="A91" s="32"/>
+      <c r="B91" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="C91" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D91" s="16">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15">
-      <c r="A14" s="40"/>
-      <c r="B14" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="17">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15">
-      <c r="A15" s="40"/>
-      <c r="B15" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15">
-      <c r="A16" s="40"/>
-      <c r="B16" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="17">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15">
-      <c r="A17" s="40"/>
-      <c r="B17" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="17">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15">
-      <c r="A18" s="40"/>
-      <c r="B18" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15">
-      <c r="A19" s="40"/>
-      <c r="B19" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="17">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15">
-      <c r="A20" s="40"/>
-      <c r="B20" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="17">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15">
-      <c r="A21" s="40"/>
-      <c r="B21" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="C21" s="16"/>
-      <c r="D21" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15">
-      <c r="A22" s="40"/>
-      <c r="B22" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="D22" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15">
-      <c r="A23" s="40"/>
-      <c r="B23" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="C23" s="16"/>
-      <c r="D23" s="31">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15">
-      <c r="A24" s="40"/>
-      <c r="B24" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="C24" s="16"/>
-      <c r="D24" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="28">
-      <c r="A25" s="40"/>
-      <c r="B25" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="D25" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15">
-      <c r="A26" s="40"/>
-      <c r="B26" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="D26" s="17">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="15">
-      <c r="A27" s="40"/>
-      <c r="B27" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="D27" s="17">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="15">
-      <c r="A28" s="40"/>
-      <c r="B28" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="C28" s="16"/>
-      <c r="D28" s="17">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="15">
-      <c r="A29" s="40"/>
-      <c r="B29" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="C29" s="16"/>
-      <c r="D29" s="17">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="15">
-      <c r="A30" s="40"/>
-      <c r="B30" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="C30" s="16"/>
-      <c r="D30" s="17">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="15">
-      <c r="A31" s="40"/>
-      <c r="B31" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="C31" s="16"/>
-      <c r="D31" s="17">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="15">
-      <c r="A32" s="40"/>
-      <c r="B32" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="C32" s="16"/>
-      <c r="D32" s="17">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="15">
-      <c r="A33" s="40"/>
-      <c r="B33" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="C33" s="16"/>
-      <c r="D33" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="15">
-      <c r="A34" s="40"/>
-      <c r="B34" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="C34" s="16"/>
-      <c r="D34" s="17">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="15">
-      <c r="A35" s="40"/>
-      <c r="B35" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="C35" s="16"/>
-      <c r="D35" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="15">
-      <c r="A36" s="40"/>
-      <c r="B36" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C36" s="16"/>
-      <c r="D36" s="17">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="15">
-      <c r="A37" s="40"/>
-      <c r="B37" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C37" s="16"/>
-      <c r="D37" s="17">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="15">
-      <c r="A38" s="40"/>
-      <c r="B38" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="C38" s="16"/>
-      <c r="D38" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="42">
-      <c r="A39" s="40"/>
-      <c r="B39" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="C39" s="16"/>
-      <c r="D39" s="17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="15">
-      <c r="A40" s="40"/>
-      <c r="B40" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="C40" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D40" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="15">
-      <c r="A41" s="40"/>
-      <c r="B41" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="C41" s="16"/>
-      <c r="D41" s="17">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="15">
-      <c r="A42" s="41"/>
-      <c r="B42" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="C42" s="16"/>
-      <c r="D42" s="17">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="15">
-      <c r="A43" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="B43" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="C43" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="D43" s="17">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="15">
-      <c r="A44" s="40"/>
-      <c r="B44" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="C44" s="16"/>
-      <c r="D44" s="31">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="15">
-      <c r="A45" s="40"/>
-      <c r="B45" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="C45" s="16"/>
-      <c r="D45" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="15">
-      <c r="A46" s="40"/>
-      <c r="B46" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="C46" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="D46" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="15">
-      <c r="A47" s="40"/>
-      <c r="B47" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="C47" s="16"/>
-      <c r="D47" s="17">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="15">
-      <c r="A48" s="40"/>
-      <c r="B48" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="C48" s="16"/>
-      <c r="D48" s="17">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="15">
-      <c r="A49" s="40"/>
-      <c r="B49" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="C49" s="16"/>
-      <c r="D49" s="17">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="15">
-      <c r="A50" s="40"/>
-      <c r="B50" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="C50" s="16"/>
-      <c r="D50" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="15">
-      <c r="A51" s="40"/>
-      <c r="B51" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="C51" s="16"/>
-      <c r="D51" s="17">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="15">
-      <c r="A52" s="40"/>
-      <c r="B52" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="C52" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D52" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="15">
-      <c r="A53" s="40"/>
-      <c r="B53" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="C53" s="16"/>
-      <c r="D53" s="17">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="15">
-      <c r="A54" s="40"/>
-      <c r="B54" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="C54" s="16"/>
-      <c r="D54" s="17">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="15">
-      <c r="A55" s="40"/>
-      <c r="B55" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="C55" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="D55" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="15">
-      <c r="A56" s="40"/>
-      <c r="B56" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="C56" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="D56" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="15">
-      <c r="A57" s="40"/>
-      <c r="B57" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="C57" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="D57" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="15">
-      <c r="A58" s="40"/>
-      <c r="B58" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="C58" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="D58" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="15">
-      <c r="A59" s="40"/>
-      <c r="B59" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="C59" s="16"/>
-      <c r="D59" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="15">
-      <c r="A60" s="40"/>
-      <c r="B60" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="C60" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="D60" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="15">
-      <c r="A61" s="40"/>
-      <c r="B61" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="C61" s="16"/>
-      <c r="D61" s="17">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="15">
-      <c r="A62" s="40"/>
-      <c r="B62" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="C62" s="16"/>
-      <c r="D62" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="15">
-      <c r="A63" s="40"/>
-      <c r="B63" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="C63" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="D63" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="15">
-      <c r="A64" s="40"/>
-      <c r="B64" s="32" t="s">
-        <v>110</v>
-      </c>
-      <c r="C64" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="D64" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="15">
-      <c r="A65" s="40"/>
-      <c r="B65" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="C65" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="D65" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="15">
-      <c r="A66" s="40"/>
-      <c r="B66" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="C66" s="16"/>
-      <c r="D66" s="17">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="15">
-      <c r="A67" s="40"/>
-      <c r="B67" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="C67" s="16"/>
-      <c r="D67" s="17">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="15">
-      <c r="A68" s="40"/>
-      <c r="B68" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="C68" s="16"/>
-      <c r="D68" s="17">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="15">
-      <c r="A69" s="40"/>
-      <c r="B69" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="C69" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="D69" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="15">
-      <c r="A70" s="40"/>
-      <c r="B70" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="C70" s="16"/>
-      <c r="D70" s="17">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="15">
-      <c r="A71" s="40"/>
-      <c r="B71" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="C71" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="D71" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="15">
-      <c r="A72" s="40"/>
-      <c r="B72" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="C72" s="16"/>
-      <c r="D72" s="17">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="15">
-      <c r="A73" s="40"/>
-      <c r="B73" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="C73" s="16"/>
-      <c r="D73" s="17">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="15">
-      <c r="A74" s="41"/>
-      <c r="B74" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="C74" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="D74" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="15">
-      <c r="A75" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="B75" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="C75" s="16"/>
-      <c r="D75" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="15">
-      <c r="A76" s="40"/>
-      <c r="B76" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="C76" s="16"/>
-      <c r="D76" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="15">
-      <c r="A77" s="40"/>
-      <c r="B77" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="C77" s="16"/>
-      <c r="D77" s="17">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="28">
-      <c r="A78" s="40"/>
-      <c r="B78" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="C78" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="D78" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="15">
-      <c r="A79" s="40"/>
-      <c r="B79" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="C79" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="D79" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="15">
-      <c r="A80" s="40"/>
-      <c r="B80" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="C80" s="16"/>
-      <c r="D80" s="17">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="28">
-      <c r="A81" s="40"/>
-      <c r="B81" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="C81" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="D81" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="15">
-      <c r="A82" s="40"/>
-      <c r="B82" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="C82" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="D82" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="15">
-      <c r="A83" s="40"/>
-      <c r="B83" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="C83" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="D83" s="17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="15">
-      <c r="A84" s="40"/>
-      <c r="B84" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="C84" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="D84" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="15">
-      <c r="A85" s="40"/>
-      <c r="B85" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="C85" s="16"/>
-      <c r="D85" s="17">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="15">
-      <c r="A86" s="40"/>
-      <c r="B86" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="C86" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="D86" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" ht="15">
-      <c r="A87" s="40"/>
-      <c r="B87" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="C87" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D87" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" ht="42">
-      <c r="A88" s="40"/>
-      <c r="B88" s="21" t="s">
+    <row r="92" spans="1:4" ht="27">
+      <c r="A92" s="32"/>
+      <c r="B92" s="37" t="s">
         <v>142</v>
       </c>
-      <c r="C88" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="D88" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" ht="15">
-      <c r="A89" s="40"/>
-      <c r="B89" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="C89" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D89" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" ht="15">
-      <c r="A90" s="40"/>
-      <c r="B90" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="C90" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D90" s="17">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" ht="15">
-      <c r="A91" s="40"/>
-      <c r="B91" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="C91" s="22" t="s">
+      <c r="C92" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="D91" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" ht="28">
-      <c r="A92" s="40"/>
-      <c r="B92" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="C92" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="D92" s="31">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" ht="15">
-      <c r="A93" s="23"/>
-      <c r="B93" s="23"/>
-      <c r="C93" s="23"/>
-      <c r="D93" s="24">
+      <c r="D92" s="16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="14.25">
+      <c r="A93" s="18"/>
+      <c r="B93" s="18"/>
+      <c r="C93" s="18"/>
+      <c r="D93" s="19">
         <f>SUM(D2:D92)</f>
         <v>63.5</v>
       </c>
     </row>
     <row r="95" spans="1:4">
-      <c r="B95" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="C95" s="26"/>
+      <c r="B95" s="20"/>
+      <c r="C95" s="21"/>
+      <c r="D95" s="14"/>
     </row>
     <row r="96" spans="1:4">
-      <c r="B96" s="28" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="97" spans="2:2">
-      <c r="B97" s="29" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="98" spans="2:2">
-      <c r="B98" s="30" t="s">
-        <v>54</v>
-      </c>
+      <c r="C96" s="21"/>
+      <c r="D96" s="14"/>
+    </row>
+    <row r="97" spans="3:4">
+      <c r="C97" s="21"/>
+      <c r="D97" s="14"/>
+    </row>
+    <row r="98" spans="3:4">
+      <c r="C98" s="21"/>
+      <c r="D98" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A2:A42"/>
     <mergeCell ref="A43:A74"/>
     <mergeCell ref="A75:A92"/>
+    <mergeCell ref="C44:C46"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
